--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.032976598777016</v>
+        <v>1.178072695907479</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.239114613895049</v>
+        <v>2.337418238066593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.800022274693822</v>
+        <v>-2.894810577753183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7400523500128254</v>
+        <v>1.299648598544681</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1848317330871619</v>
+        <v>-0.02575874433247969</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.598236860039611</v>
+        <v>2.555679353226276</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.77183652974111</v>
+        <v>4.864315084996888</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.485927562585136</v>
+        <v>5.484833354526018</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.753141892975943</v>
+        <v>3.457303081464827</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.820064682822121</v>
+        <v>7.672570768833609</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.663284979042077</v>
+        <v>3.632368488391999</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.826085521622776</v>
+        <v>5.890312440434159</v>
       </c>
     </row>
     <row r="7">
@@ -715,16 +715,16 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.5271152780956696</v>
+        <v>-0.528614534116205</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03004985334010705</v>
+        <v>0.1634329490462093</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.009483857341915189</v>
+        <v>-0.05829699115093364</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7758731656374964</v>
+        <v>0.7622723739883082</v>
       </c>
     </row>
     <row r="9">
@@ -737,16 +737,16 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>1.761556299800346</v>
+        <v>1.424386798349887</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.432734562066047</v>
+        <v>3.77933610320258</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.099963499082876</v>
+        <v>3.544153629973052</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.17626196920249</v>
+        <v>5.308891505197423</v>
       </c>
     </row>
     <row r="10">
@@ -770,7 +770,7 @@
         <v>-1.246100517978522</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.919239679831987</v>
+        <v>6.919239679831983</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.7708117608666822</v>
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.629362728213075</v>
+        <v>-2.235800090719394</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2243117825222146</v>
+        <v>0.1301348711482891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.950580405026008</v>
+        <v>-3.996710033886269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.135435894491544</v>
+        <v>3.358568512603118</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.461880166362165</v>
+        <v>-2.650652249341572</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.443164992914896</v>
+        <v>2.615404105693567</v>
       </c>
     </row>
     <row r="12">
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.39665078011049</v>
+        <v>1.221263629833452</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.394579626022925</v>
+        <v>4.390275499539547</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.67900660473567</v>
+        <v>1.741265880928998</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.983263629201179</v>
+        <v>10.28269968616838</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.018045709888219</v>
+        <v>1.092948157615956</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.40202467160272</v>
+        <v>6.484561437135906</v>
       </c>
     </row>
     <row r="13">
@@ -842,13 +842,13 @@
         <v>-0.2740202438759375</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.217117816323712</v>
+        <v>1.217117816323711</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2854182564127248</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.58484592264123</v>
+        <v>1.584845922641229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2535162625238319</v>
@@ -865,22 +865,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.854688098141955</v>
+        <v>-0.8243606754225483</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05516224976158882</v>
+        <v>-0.05777818417427052</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7420720999849304</v>
+        <v>-0.703229853640762</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3956921257432348</v>
+        <v>0.4430514480597659</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6350663165104693</v>
+        <v>-0.6540057073638549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5555004025653452</v>
+        <v>0.6442072282699201</v>
       </c>
     </row>
     <row r="15">
@@ -891,22 +891,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.54672003262389</v>
+        <v>1.494171537387987</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.292318034803892</v>
+        <v>4.398696996461956</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7597172309511292</v>
+        <v>0.7717496047455975</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.896868158214713</v>
+        <v>3.861609351272197</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5231166814999431</v>
+        <v>0.5658074982139031</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.028283283482085</v>
+        <v>3.050202517436145</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
         <v>-2.079673806532408</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.233626644761994</v>
+        <v>4.233626644761992</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>8.23795728316032</v>
@@ -936,7 +936,7 @@
         <v>0.3239062962408938</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.319205396256165</v>
+        <v>6.319205396256167</v>
       </c>
     </row>
     <row r="17">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.545175699048329</v>
+        <v>-4.30362890172891</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.293886497185498</v>
+        <v>1.112823797852535</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.244864699498659</v>
+        <v>1.710504774095239</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.252272065127347</v>
+        <v>5.679340097274725</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.968266535171322</v>
+        <v>-1.960512823187844</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.563976499161718</v>
+        <v>3.564894709248795</v>
       </c>
     </row>
     <row r="18">
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.151535744807767</v>
+        <v>0.3393097175457481</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.397972765596298</v>
+        <v>7.71473368097084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.0596834987423</v>
+        <v>15.0229883636235</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.88991990043044</v>
+        <v>17.1106388068056</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.753383300743421</v>
+        <v>2.95900924713699</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.964917002596707</v>
+        <v>9.236189445943143</v>
       </c>
     </row>
     <row r="19">
@@ -1002,7 +1002,7 @@
         <v>-0.4494716445697147</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.9149969214105615</v>
+        <v>0.9149969214105613</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>1.298492570827234</v>
@@ -1025,22 +1025,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7295675078698268</v>
+        <v>-0.7449656103475021</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1918867584642738</v>
+        <v>0.166260519616585</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1862188304617377</v>
+        <v>0.1710936857608472</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.6907579439706827</v>
+        <v>0.6259753426442568</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3285752050550228</v>
+        <v>-0.3311732681545307</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5480216621121294</v>
+        <v>0.5756372415501595</v>
       </c>
     </row>
     <row r="21">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05639623887981553</v>
+        <v>0.1151767287322906</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.107373291604977</v>
+        <v>2.427330945264565</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.473992736691553</v>
+        <v>3.441400292120792</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.352699868119631</v>
+        <v>4.068497172723407</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7062268185833303</v>
+        <v>0.7881581834553026</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.204202174848655</v>
+        <v>2.303400107920077</v>
       </c>
     </row>
     <row r="22">
@@ -1090,13 +1090,13 @@
         <v>0.2282178503228212</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.967400268379687</v>
+        <v>4.967400268379688</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-1.105592227578123</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.352159039597305</v>
+        <v>4.35215903959731</v>
       </c>
     </row>
     <row r="23">
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.862687571874624</v>
+        <v>-4.068062482033899</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.930942812299872</v>
+        <v>1.574296407580202</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.082483195952842</v>
+        <v>-2.204373995448672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.403656937187707</v>
+        <v>2.45196062042132</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.608312464490345</v>
+        <v>-2.465963900942943</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.815060917617087</v>
+        <v>2.718339241904701</v>
       </c>
     </row>
     <row r="24">
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.3470277236364204</v>
+        <v>-0.4738250082369606</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.078223269208256</v>
+        <v>5.973773871127559</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.953025568005542</v>
+        <v>2.862588481071398</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.270199051589494</v>
+        <v>7.408425479590919</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1786783040739807</v>
+        <v>0.4839976354416632</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.93626649596202</v>
+        <v>6.062772077673147</v>
       </c>
     </row>
     <row r="25">
@@ -1168,13 +1168,13 @@
         <v>0.03853116238883719</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.838671059781478</v>
+        <v>0.8386710597814783</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1947700858584391</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7667116036703967</v>
+        <v>0.7667116036703974</v>
       </c>
     </row>
     <row r="26">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5805328790927772</v>
+        <v>-0.6021855929120401</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2788386961106639</v>
+        <v>0.2455481514235568</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.302211447546203</v>
+        <v>-0.3205431334554268</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.313743877045946</v>
+        <v>0.3171017205763225</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4087600609120404</v>
+        <v>-0.3864882854554517</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4270046310365553</v>
+        <v>0.4104028273034834</v>
       </c>
     </row>
     <row r="27">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.0650242584067134</v>
+        <v>-0.09735211396361484</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.378571727902354</v>
+        <v>1.380264776774555</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.631820915577439</v>
+        <v>0.6109362803001038</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.602057321269542</v>
+        <v>1.607142913737776</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03177657991387813</v>
+        <v>0.1028393615785604</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.223941937245926</v>
+        <v>1.274353771162987</v>
       </c>
     </row>
     <row r="28">
@@ -1244,13 +1244,13 @@
         <v>1.98575707507878</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>4.564125998636312</v>
+        <v>4.564125998636309</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.5265937757057761</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10.27084029160456</v>
+        <v>10.27084029160455</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.1179931440796839</v>
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4531808012241364</v>
+        <v>-0.4061742938513593</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.098180373384342</v>
+        <v>2.028772355207682</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.17684901372314</v>
+        <v>-4.031485728708567</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.982571354576965</v>
+        <v>6.714423254129549</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.040695759092019</v>
+        <v>-2.369462002702563</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.442789222348983</v>
+        <v>5.641129930621799</v>
       </c>
     </row>
     <row r="30">
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.333074174870918</v>
+        <v>4.601381212798505</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.340750913497776</v>
+        <v>7.22647408849943</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.377780381891721</v>
+        <v>3.031905863652629</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.52730750591316</v>
+        <v>13.50907300097077</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.384831637708394</v>
+        <v>2.263989625267952</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.14205503815424</v>
+        <v>10.22985349544882</v>
       </c>
     </row>
     <row r="31">
@@ -1328,7 +1328,7 @@
         <v>-0.04172685067850308</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.8138528007022841</v>
+        <v>0.8138528007022838</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01314711500940346</v>
@@ -1345,22 +1345,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1073952832946269</v>
+        <v>-0.1149083047374209</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3712626404518209</v>
+        <v>0.3961520800590677</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2898014159409955</v>
+        <v>-0.2820373885770205</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.471160557474711</v>
+        <v>0.4441777500591856</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2060247138333242</v>
+        <v>-0.2315199366432271</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.527783568986996</v>
+        <v>0.5194309669035549</v>
       </c>
     </row>
     <row r="33">
@@ -1371,22 +1371,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.927737803801167</v>
+        <v>1.860463051320013</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.082858677554341</v>
+        <v>3.047813400633278</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3292209418509516</v>
+        <v>0.2711018188736543</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.235237484980172</v>
+        <v>1.258082853675443</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3041024517250493</v>
+        <v>0.2869209273734943</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.326534275003417</v>
+        <v>1.29626820632433</v>
       </c>
     </row>
     <row r="34">
@@ -1410,7 +1410,7 @@
         <v>-1.497171115136814</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3.779152008464468</v>
+        <v>3.77915200846447</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-1.4494284595924</v>
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.811584582640325</v>
+        <v>-1.803242538952874</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.8315646677706756</v>
+        <v>-0.6972651986929141</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.410903409181508</v>
+        <v>-4.491451092820908</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.020970726809915</v>
+        <v>1.275075220435858</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.698155399893758</v>
+        <v>-3.899990694963411</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.3351317569372574</v>
+        <v>0.2534142030390402</v>
       </c>
     </row>
     <row r="36">
@@ -1453,22 +1453,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.8165369743727637</v>
+        <v>0.8229037890071074</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.555314337143991</v>
+        <v>2.533400429164316</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.245557751415435</v>
+        <v>1.291540702799129</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.982024058761842</v>
+        <v>6.832432336165467</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.8639118341974367</v>
+        <v>1.019157190419028</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.994160786209704</v>
+        <v>5.174298405764226</v>
       </c>
     </row>
     <row r="37">
@@ -1488,7 +1488,7 @@
         <v>-0.1149384033269096</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.29012695569063</v>
+        <v>0.2901269556906302</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.1361838977914326</v>
@@ -1505,18 +1505,20 @@
         </is>
       </c>
       <c r="C38" s="6" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="n">
+        <v>-0.7814758487018765</v>
+      </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3093331404797013</v>
+        <v>-0.3057899144365309</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.06694050867067448</v>
+        <v>0.0847477965519956</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3185692827149261</v>
+        <v>-0.3347310587071733</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02963475923167242</v>
+        <v>0.01945209785316567</v>
       </c>
     </row>
     <row r="39">
@@ -1529,16 +1531,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>0.1076567264293277</v>
+        <v>0.1146097295973379</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5946732108452596</v>
+        <v>0.6044052772918417</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.09275281408659089</v>
+        <v>0.1126484431633986</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5173285800861034</v>
+        <v>0.5610140698914989</v>
       </c>
     </row>
     <row r="40">
@@ -1579,22 +1581,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.379030475570371</v>
+        <v>-1.32818988879964</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.389584385205885</v>
+        <v>2.282576101897904</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.730494317995287</v>
+        <v>-1.821423144887404</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.5664550837299</v>
+        <v>4.345255960204588</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.247460297981527</v>
+        <v>-1.2497038379018</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.793139096145619</v>
+        <v>3.851737615852899</v>
       </c>
     </row>
     <row r="42">
@@ -1605,22 +1607,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.3792891565226704</v>
+        <v>0.4137166842737129</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.414266820416922</v>
+        <v>4.373146602194875</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.101335443784693</v>
+        <v>0.9903276496315091</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.288868705643354</v>
+        <v>7.210764640956585</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.5285478671357349</v>
+        <v>0.485633185717234</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.564855416389246</v>
+        <v>5.633677400821456</v>
       </c>
     </row>
     <row r="43">
@@ -1657,22 +1659,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3366589674596407</v>
+        <v>-0.319579410261176</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.5767867960982926</v>
+        <v>0.5509592687698298</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1741839062435376</v>
+        <v>-0.1833452964497323</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.4494836914130624</v>
+        <v>0.4264554374773087</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1829765629215636</v>
+        <v>-0.1820045620026936</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5451073537651407</v>
+        <v>0.5397375105595357</v>
       </c>
     </row>
     <row r="45">
@@ -1683,22 +1685,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1321315007416888</v>
+        <v>0.14834430723897</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.436593157439499</v>
+        <v>1.388426012901399</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1292573845460098</v>
+        <v>0.1126649212823081</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8498804228169706</v>
+        <v>0.8669495071539158</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.08787121075298632</v>
+        <v>0.0803309758278552</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.930201308035817</v>
+        <v>0.9269885414463314</v>
       </c>
     </row>
     <row r="46">
